--- a/dati_esempio.xlsx
+++ b/dati_esempio.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanislava/psicometria/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89472FE-AD8F-CC4B-ABB7-F52B8C28BD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +52,6 @@
     <t>Stimolo</t>
   </si>
   <si>
-    <t>Risposta</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -80,13 +83,43 @@
   </si>
   <si>
     <t>Aprile</t>
+  </si>
+  <si>
+    <t>Soggetto 1</t>
+  </si>
+  <si>
+    <t>Soggetto 2</t>
+  </si>
+  <si>
+    <t>Soggetto 3</t>
+  </si>
+  <si>
+    <t>Soggetto 4</t>
+  </si>
+  <si>
+    <t>Soggetto 5</t>
+  </si>
+  <si>
+    <t>Soggetto 6</t>
+  </si>
+  <si>
+    <t>Soggetto 7</t>
+  </si>
+  <si>
+    <t>Soggetto 8</t>
+  </si>
+  <si>
+    <t>Soggetto 9</t>
+  </si>
+  <si>
+    <t>Soggetto 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +131,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,24 +192,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +259,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +293,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +328,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,14 +504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,21 +545,48 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>20.5</v>
@@ -504,7 +601,7 @@
         <v>8.1</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>0.1</v>
@@ -512,19 +609,46 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>33.5</v>
@@ -539,7 +663,7 @@
         <v>7.1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>0.13</v>
@@ -547,19 +671,46 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>27.1</v>
@@ -568,33 +719,60 @@
         <v>28.9</v>
       </c>
       <c r="G4">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>0.16</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>25.9</v>
@@ -609,7 +787,7 @@
         <v>11.1</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5">
         <v>0.19</v>
@@ -617,19 +795,46 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>33.9</v>
@@ -644,27 +849,54 @@
         <v>5.4</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>0.22</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>23.5</v>
@@ -679,30 +911,57 @@
         <v>5.6</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7">
         <v>0.26</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="F8">
         <v>20.7</v>
@@ -714,27 +973,54 @@
         <v>3.1</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>29.5</v>
@@ -749,7 +1035,7 @@
         <v>8.4</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>0.32</v>
@@ -757,19 +1043,46 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>22.8</v>
@@ -784,7 +1097,7 @@
         <v>8.6</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>0.35</v>
@@ -792,19 +1105,46 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>27.6</v>
@@ -819,33 +1159,60 @@
         <v>4.3</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>0.38</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>32.9</v>
       </c>
       <c r="F12">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G12">
         <v>23.6</v>
@@ -854,7 +1221,7 @@
         <v>7.2</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>0.41</v>
@@ -862,19 +1229,46 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>32</v>
@@ -889,7 +1283,7 @@
         <v>8.4</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>0.44</v>
@@ -897,19 +1291,46 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>35.5</v>
@@ -924,27 +1345,54 @@
         <v>6.5</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14">
         <v>0.47</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>29.7</v>
@@ -959,27 +1407,54 @@
         <v>7.7</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15">
         <v>0.5</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>44.9</v>
@@ -994,7 +1469,7 @@
         <v>6.3</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16">
         <v>0.53</v>
@@ -1002,19 +1477,46 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>23.4</v>
@@ -1029,27 +1531,54 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>26</v>
@@ -1064,7 +1593,7 @@
         <v>8.1</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <v>0.6</v>
@@ -1072,19 +1601,46 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>27.7</v>
@@ -1096,10 +1652,10 @@
         <v>21.5</v>
       </c>
       <c r="H19">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>0.63</v>
@@ -1107,19 +1663,46 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>20.9</v>
@@ -1134,30 +1717,57 @@
         <v>7.5</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20">
         <v>0.66</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F21">
         <v>29</v>
@@ -1166,30 +1776,57 @@
         <v>16.5</v>
       </c>
       <c r="H21">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>32.5</v>
@@ -1204,7 +1841,7 @@
         <v>4.5</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22">
         <v>0.72</v>
@@ -1212,19 +1849,46 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>28.1</v>
@@ -1239,42 +1903,69 @@
         <v>3.7</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23">
         <v>0.75</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>25.3</v>
       </c>
       <c r="F24">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G24">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H24">
         <v>7.5</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24">
         <v>0.78</v>
@@ -1282,19 +1973,46 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>20.5</v>
@@ -1309,27 +2027,54 @@
         <v>8.5</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>24.1</v>
@@ -1344,7 +2089,7 @@
         <v>6.8</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <v>0.84</v>
@@ -1352,19 +2097,46 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>31.7</v>
@@ -1373,13 +2145,13 @@
         <v>19.8</v>
       </c>
       <c r="G27">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H27">
         <v>7.9</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27">
         <v>0.88</v>
@@ -1387,19 +2159,46 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>26.9</v>
@@ -1408,13 +2207,13 @@
         <v>18.7</v>
       </c>
       <c r="G28">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H28">
         <v>4.3</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28">
         <v>0.91</v>
@@ -1422,19 +2221,46 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>25.9</v>
@@ -1449,27 +2275,54 @@
         <v>6.3</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>30.5</v>
@@ -1478,13 +2331,13 @@
         <v>24.4</v>
       </c>
       <c r="G30">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H30">
         <v>3.3</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>0.97</v>
@@ -1492,22 +2345,49 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="F31">
         <v>20.7</v>
@@ -1519,7 +2399,7 @@
         <v>4.5</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1527,8 +2407,36 @@
       <c r="K31">
         <v>1</v>
       </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>